--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.03123754097002</v>
+        <v>7.484645</v>
       </c>
       <c r="H2">
-        <v>7.03123754097002</v>
+        <v>22.453935</v>
       </c>
       <c r="I2">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J2">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.127317225489265</v>
+        <v>0.167255</v>
       </c>
       <c r="N2">
-        <v>0.127317225489265</v>
+        <v>0.501765</v>
       </c>
       <c r="O2">
-        <v>0.1028908665632954</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="P2">
-        <v>0.1028908665632954</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="Q2">
-        <v>0.8951976554722652</v>
+        <v>1.251844299475</v>
       </c>
       <c r="R2">
-        <v>0.8951976554722652</v>
+        <v>11.266598695275</v>
       </c>
       <c r="S2">
-        <v>0.04004887682320662</v>
+        <v>0.04082436464526111</v>
       </c>
       <c r="T2">
-        <v>0.04004887682320662</v>
+        <v>0.04082436464526111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.03123754097002</v>
+        <v>7.484645</v>
       </c>
       <c r="H3">
-        <v>7.03123754097002</v>
+        <v>22.453935</v>
       </c>
       <c r="I3">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J3">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.405051463781167</v>
+        <v>0.429376</v>
       </c>
       <c r="N3">
-        <v>0.405051463781167</v>
+        <v>1.288128</v>
       </c>
       <c r="O3">
-        <v>0.3273405931602676</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="P3">
-        <v>0.3273405931602676</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="Q3">
-        <v>2.848013058163</v>
+        <v>3.21372693152</v>
       </c>
       <c r="R3">
-        <v>2.848013058163</v>
+        <v>28.92354238368</v>
       </c>
       <c r="S3">
-        <v>0.1274128941915976</v>
+        <v>0.1048040560457005</v>
       </c>
       <c r="T3">
-        <v>0.1274128941915976</v>
+        <v>0.1048040560457005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.03123754097002</v>
+        <v>7.484645</v>
       </c>
       <c r="H4">
-        <v>7.03123754097002</v>
+        <v>22.453935</v>
       </c>
       <c r="I4">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J4">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.705031963886116</v>
+        <v>0.02801</v>
       </c>
       <c r="N4">
-        <v>0.705031963886116</v>
+        <v>0.08402999999999999</v>
       </c>
       <c r="O4">
-        <v>0.569768540276437</v>
+        <v>0.01783505787001908</v>
       </c>
       <c r="P4">
-        <v>0.569768540276437</v>
+        <v>0.01783505787001909</v>
       </c>
       <c r="Q4">
-        <v>4.957247212059878</v>
+        <v>0.20964490645</v>
       </c>
       <c r="R4">
-        <v>4.957247212059878</v>
+        <v>1.88680415805</v>
       </c>
       <c r="S4">
-        <v>0.2217746904991993</v>
+        <v>0.006836808787263541</v>
       </c>
       <c r="T4">
-        <v>0.2217746904991993</v>
+        <v>0.006836808787263541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.2417192276463</v>
+        <v>7.484645</v>
       </c>
       <c r="H5">
-        <v>8.2417192276463</v>
+        <v>22.453935</v>
       </c>
       <c r="I5">
-        <v>0.4562465156764429</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J5">
-        <v>0.4562465156764429</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.127317225489265</v>
+        <v>0.9458613333333332</v>
       </c>
       <c r="N5">
-        <v>0.127317225489265</v>
+        <v>2.837584</v>
       </c>
       <c r="O5">
-        <v>0.1028908665632954</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="P5">
-        <v>0.1028908665632954</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="Q5">
-        <v>1.049312825325455</v>
+        <v>7.079436299226666</v>
       </c>
       <c r="R5">
-        <v>1.049312825325455</v>
+        <v>63.71492669304</v>
       </c>
       <c r="S5">
-        <v>0.04694359936443337</v>
+        <v>0.230870156203718</v>
       </c>
       <c r="T5">
-        <v>0.04694359936443337</v>
+        <v>0.230870156203718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.2417192276463</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H6">
-        <v>8.2417192276463</v>
+        <v>24.89943</v>
       </c>
       <c r="I6">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J6">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.405051463781167</v>
+        <v>0.167255</v>
       </c>
       <c r="N6">
-        <v>0.405051463781167</v>
+        <v>0.501765</v>
       </c>
       <c r="O6">
-        <v>0.3273405931602676</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="P6">
-        <v>0.3273405931602676</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="Q6">
-        <v>3.338320437231523</v>
+        <v>1.38818472155</v>
       </c>
       <c r="R6">
-        <v>3.338320437231523</v>
+        <v>12.49366249395</v>
       </c>
       <c r="S6">
-        <v>0.1493480050688322</v>
+        <v>0.04527061335926882</v>
       </c>
       <c r="T6">
-        <v>0.1493480050688322</v>
+        <v>0.04527061335926883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.2417192276463</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H7">
-        <v>8.2417192276463</v>
+        <v>24.89943</v>
       </c>
       <c r="I7">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J7">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.705031963886116</v>
+        <v>0.429376</v>
       </c>
       <c r="N7">
-        <v>0.705031963886116</v>
+        <v>1.288128</v>
       </c>
       <c r="O7">
-        <v>0.569768540276437</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="P7">
-        <v>0.569768540276437</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="Q7">
-        <v>5.810675492865434</v>
+        <v>3.56373921856</v>
       </c>
       <c r="R7">
-        <v>5.810675492865434</v>
+        <v>32.07365296704</v>
       </c>
       <c r="S7">
-        <v>0.2599549112431774</v>
+        <v>0.1162184382036376</v>
       </c>
       <c r="T7">
-        <v>0.2599549112431774</v>
+        <v>0.1162184382036376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8795020520474101</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H8">
-        <v>0.8795020520474101</v>
+        <v>24.89943</v>
       </c>
       <c r="I8">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J8">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.127317225489265</v>
+        <v>0.02801</v>
       </c>
       <c r="N8">
-        <v>0.127317225489265</v>
+        <v>0.08402999999999999</v>
       </c>
       <c r="O8">
-        <v>0.1028908665632954</v>
+        <v>0.01783505787001908</v>
       </c>
       <c r="P8">
-        <v>0.1028908665632954</v>
+        <v>0.01783505787001909</v>
       </c>
       <c r="Q8">
-        <v>0.1119757610787914</v>
+        <v>0.2324776781</v>
       </c>
       <c r="R8">
-        <v>0.1119757610787914</v>
+        <v>2.0922991029</v>
       </c>
       <c r="S8">
-        <v>0.005009512072798619</v>
+        <v>0.007581416879573821</v>
       </c>
       <c r="T8">
-        <v>0.005009512072798619</v>
+        <v>0.007581416879573824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8795020520474101</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H9">
-        <v>0.8795020520474101</v>
+        <v>24.89943</v>
       </c>
       <c r="I9">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J9">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.405051463781167</v>
+        <v>0.9458613333333332</v>
       </c>
       <c r="N9">
-        <v>0.405051463781167</v>
+        <v>2.837584</v>
       </c>
       <c r="O9">
-        <v>0.3273405931602676</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="P9">
-        <v>0.3273405931602676</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="Q9">
-        <v>0.3562435935803436</v>
+        <v>7.850469353013334</v>
       </c>
       <c r="R9">
-        <v>0.3562435935803436</v>
+        <v>70.65422417712</v>
       </c>
       <c r="S9">
-        <v>0.01593743651040838</v>
+        <v>0.2560146047222254</v>
       </c>
       <c r="T9">
-        <v>0.01593743651040838</v>
+        <v>0.2560146047222255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8795020520474101</v>
+        <v>0.493317</v>
       </c>
       <c r="H10">
-        <v>0.8795020520474101</v>
+        <v>1.479951</v>
       </c>
       <c r="I10">
-        <v>0.04868762641547891</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="J10">
-        <v>0.04868762641547891</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.705031963886116</v>
+        <v>0.167255</v>
       </c>
       <c r="N10">
-        <v>0.705031963886116</v>
+        <v>0.501765</v>
       </c>
       <c r="O10">
-        <v>0.569768540276437</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="P10">
-        <v>0.569768540276437</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="Q10">
-        <v>0.6200770589968545</v>
+        <v>0.08250973483500001</v>
       </c>
       <c r="R10">
-        <v>0.6200770589968545</v>
+        <v>0.742587613515</v>
       </c>
       <c r="S10">
-        <v>0.02774067783227191</v>
+        <v>0.002690755953516336</v>
       </c>
       <c r="T10">
-        <v>0.02774067783227191</v>
+        <v>0.002690755953516336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.91172127598186</v>
+        <v>0.493317</v>
       </c>
       <c r="H11">
-        <v>1.91172127598186</v>
+        <v>1.479951</v>
       </c>
       <c r="I11">
-        <v>0.1058293963940747</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="J11">
-        <v>0.1058293963940747</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.127317225489265</v>
+        <v>0.429376</v>
       </c>
       <c r="N11">
-        <v>0.127317225489265</v>
+        <v>1.288128</v>
       </c>
       <c r="O11">
-        <v>0.1028908665632954</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="P11">
-        <v>0.1028908665632954</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="Q11">
-        <v>0.2433950487668079</v>
+        <v>0.211818480192</v>
       </c>
       <c r="R11">
-        <v>0.2433950487668079</v>
+        <v>1.906366321728</v>
       </c>
       <c r="S11">
-        <v>0.01088887830285684</v>
+        <v>0.006907692016962303</v>
       </c>
       <c r="T11">
-        <v>0.01088887830285684</v>
+        <v>0.006907692016962303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.91172127598186</v>
+        <v>0.493317</v>
       </c>
       <c r="H12">
-        <v>1.91172127598186</v>
+        <v>1.479951</v>
       </c>
       <c r="I12">
-        <v>0.1058293963940747</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="J12">
-        <v>0.1058293963940747</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.405051463781167</v>
+        <v>0.02801</v>
       </c>
       <c r="N12">
-        <v>0.405051463781167</v>
+        <v>0.08402999999999999</v>
       </c>
       <c r="O12">
-        <v>0.3273405931602676</v>
+        <v>0.01783505787001908</v>
       </c>
       <c r="P12">
-        <v>0.3273405931602676</v>
+        <v>0.01783505787001909</v>
       </c>
       <c r="Q12">
-        <v>0.7743455011780528</v>
+        <v>0.01381780917</v>
       </c>
       <c r="R12">
-        <v>0.7743455011780528</v>
+        <v>0.12436028253</v>
       </c>
       <c r="S12">
-        <v>0.03464225738942949</v>
+        <v>0.0004506177648380768</v>
       </c>
       <c r="T12">
-        <v>0.03464225738942949</v>
+        <v>0.0004506177648380769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.493317</v>
+      </c>
+      <c r="H13">
+        <v>1.479951</v>
+      </c>
+      <c r="I13">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="J13">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N13">
+        <v>2.837584</v>
+      </c>
+      <c r="O13">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P13">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q13">
+        <v>0.4666094753759999</v>
+      </c>
+      <c r="R13">
+        <v>4.199485278384</v>
+      </c>
+      <c r="S13">
+        <v>0.01521677686088646</v>
+      </c>
+      <c r="T13">
+        <v>0.01521677686088646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.831529</v>
+      </c>
+      <c r="I14">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J14">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.167255</v>
+      </c>
+      <c r="N14">
+        <v>0.501765</v>
+      </c>
+      <c r="O14">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="P14">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="Q14">
+        <v>0.04635912763166666</v>
+      </c>
+      <c r="R14">
+        <v>0.417232148685</v>
+      </c>
+      <c r="S14">
+        <v>0.001511834923772128</v>
+      </c>
+      <c r="T14">
+        <v>0.001511834923772128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.831529</v>
+      </c>
+      <c r="I15">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J15">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.429376</v>
+      </c>
+      <c r="N15">
+        <v>1.288128</v>
+      </c>
+      <c r="O15">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="P15">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="Q15">
+        <v>0.1190128653013333</v>
+      </c>
+      <c r="R15">
+        <v>1.071115787712</v>
+      </c>
+      <c r="S15">
+        <v>0.003881173251798638</v>
+      </c>
+      <c r="T15">
+        <v>0.003881173251798638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.831529</v>
+      </c>
+      <c r="I16">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J16">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02801</v>
+      </c>
+      <c r="N16">
+        <v>0.08402999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.01783505787001908</v>
+      </c>
+      <c r="P16">
+        <v>0.01783505787001909</v>
+      </c>
+      <c r="Q16">
+        <v>0.007763709096666665</v>
+      </c>
+      <c r="R16">
+        <v>0.06987338186999999</v>
+      </c>
+      <c r="S16">
+        <v>0.0002531852334151882</v>
+      </c>
+      <c r="T16">
+        <v>0.0002531852334151882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.831529</v>
+      </c>
+      <c r="I17">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J17">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N17">
+        <v>2.837584</v>
+      </c>
+      <c r="O17">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P17">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q17">
+        <v>0.262170376215111</v>
+      </c>
+      <c r="R17">
+        <v>2.359533385935999</v>
+      </c>
+      <c r="S17">
+        <v>0.008549736610439168</v>
+      </c>
+      <c r="T17">
+        <v>0.008549736610439168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.783958</v>
+      </c>
+      <c r="I18">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J18">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.167255</v>
+      </c>
+      <c r="N18">
+        <v>0.501765</v>
+      </c>
+      <c r="O18">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="P18">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="Q18">
+        <v>0.15521029843</v>
+      </c>
+      <c r="R18">
+        <v>1.39689268587</v>
+      </c>
+      <c r="S18">
+        <v>0.005061621339381797</v>
+      </c>
+      <c r="T18">
+        <v>0.005061621339381797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.783958</v>
+      </c>
+      <c r="I19">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J19">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.429376</v>
+      </c>
+      <c r="N19">
+        <v>1.288128</v>
+      </c>
+      <c r="O19">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="P19">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="Q19">
+        <v>0.398454916736</v>
+      </c>
+      <c r="R19">
+        <v>3.586094250624</v>
+      </c>
+      <c r="S19">
+        <v>0.01299416295009655</v>
+      </c>
+      <c r="T19">
+        <v>0.01299416295009655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.783958</v>
+      </c>
+      <c r="I20">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J20">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02801</v>
+      </c>
+      <c r="N20">
+        <v>0.08402999999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.01783505787001908</v>
+      </c>
+      <c r="P20">
+        <v>0.01783505787001909</v>
+      </c>
+      <c r="Q20">
+        <v>0.02599288786</v>
+      </c>
+      <c r="R20">
+        <v>0.23393599074</v>
+      </c>
+      <c r="S20">
+        <v>0.0008476638289802046</v>
+      </c>
+      <c r="T20">
+        <v>0.0008476638289802048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.91172127598186</v>
-      </c>
-      <c r="H13">
-        <v>1.91172127598186</v>
-      </c>
-      <c r="I13">
-        <v>0.1058293963940747</v>
-      </c>
-      <c r="J13">
-        <v>0.1058293963940747</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.705031963886116</v>
-      </c>
-      <c r="N13">
-        <v>0.705031963886116</v>
-      </c>
-      <c r="O13">
-        <v>0.569768540276437</v>
-      </c>
-      <c r="P13">
-        <v>0.569768540276437</v>
-      </c>
-      <c r="Q13">
-        <v>1.347824605608362</v>
-      </c>
-      <c r="R13">
-        <v>1.347824605608362</v>
-      </c>
-      <c r="S13">
-        <v>0.06029826070178835</v>
-      </c>
-      <c r="T13">
-        <v>0.06029826070178835</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.783958</v>
+      </c>
+      <c r="I21">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J21">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N21">
+        <v>2.837584</v>
+      </c>
+      <c r="O21">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P21">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q21">
+        <v>0.8777460752746666</v>
+      </c>
+      <c r="R21">
+        <v>7.899714677472</v>
+      </c>
+      <c r="S21">
+        <v>0.02862450694386487</v>
+      </c>
+      <c r="T21">
+        <v>0.02862450694386487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.042122</v>
+      </c>
+      <c r="H22">
+        <v>6.126366</v>
+      </c>
+      <c r="I22">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J22">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.167255</v>
+      </c>
+      <c r="N22">
+        <v>0.501765</v>
+      </c>
+      <c r="O22">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="P22">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="Q22">
+        <v>0.34155511511</v>
+      </c>
+      <c r="R22">
+        <v>3.07399603599</v>
+      </c>
+      <c r="S22">
+        <v>0.01113858214759817</v>
+      </c>
+      <c r="T22">
+        <v>0.01113858214759817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.042122</v>
+      </c>
+      <c r="H23">
+        <v>6.126366</v>
+      </c>
+      <c r="I23">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J23">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.429376</v>
+      </c>
+      <c r="N23">
+        <v>1.288128</v>
+      </c>
+      <c r="O23">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="P23">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="Q23">
+        <v>0.876838175872</v>
+      </c>
+      <c r="R23">
+        <v>7.891543582848</v>
+      </c>
+      <c r="S23">
+        <v>0.02859489909543578</v>
+      </c>
+      <c r="T23">
+        <v>0.02859489909543578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.042122</v>
+      </c>
+      <c r="H24">
+        <v>6.126366</v>
+      </c>
+      <c r="I24">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J24">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02801</v>
+      </c>
+      <c r="N24">
+        <v>0.08402999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.01783505787001908</v>
+      </c>
+      <c r="P24">
+        <v>0.01783505787001909</v>
+      </c>
+      <c r="Q24">
+        <v>0.05719983721999999</v>
+      </c>
+      <c r="R24">
+        <v>0.5147985349799999</v>
+      </c>
+      <c r="S24">
+        <v>0.001865365375948251</v>
+      </c>
+      <c r="T24">
+        <v>0.001865365375948251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.042122</v>
+      </c>
+      <c r="H25">
+        <v>6.126366</v>
+      </c>
+      <c r="I25">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J25">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N25">
+        <v>2.837584</v>
+      </c>
+      <c r="O25">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P25">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q25">
+        <v>1.931564237749333</v>
+      </c>
+      <c r="R25">
+        <v>17.384078139744</v>
+      </c>
+      <c r="S25">
+        <v>0.06299096685641724</v>
+      </c>
+      <c r="T25">
+        <v>0.06299096685641725</v>
       </c>
     </row>
   </sheetData>
